--- a/home.xlsx
+++ b/home.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Title</t>
   </si>
@@ -28,33 +28,28 @@
     <t>Home_Svg</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;svg viewBox="0 0 500 500" width="35px" height="35px" xmlns="http://www.w3.org/2000/svg"&gt;
-    &lt;path
-        d="m312.289062 80.179688c-41.386718-.050782-81.3125 15.304687-112 43.074218-35.375-45.320312-99.316406-56.5-147.964843-25.863281-48.652344 30.632813-66.207031 93.125-40.625 144.613281 25.582031 51.484375 85.992187 75.238282 139.789062 54.96875 2.269531 7.449219 5.074219 14.722656 8.386719 21.769532-32.71875 21.539062-47.246094 62.117187-35.636719 99.527343 11.609375 37.40625 46.558594 62.632813 85.71875 61.867188 39.164063-.765625 73.097657-27.335938 83.238281-65.171875 61.90625 7.132812 122.671876-20.597656 157.851563-72.035156 35.175781-51.4375 38.980469-118.125 9.878906-173.230469-29.101562-55.105469-86.320312-89.566407-148.636719-89.519531zm-296 112c-.066406-41.289063 26.320313-77.976563 65.484376-91.050782 39.164062-13.074218 82.300781.40625 107.050781 33.453125-28.671875 30.875-44.582031 71.464844-44.535157 113.597657.023438 11.128906 1.148438 22.222656 3.351563 33.128906-29.539063 11.839844-63.035156 8.226562-89.371094-9.644532-26.335937-17.867187-42.066406-47.65625-41.980469-79.484374zm192 272c-39.765624 0-72-32.234376-72-72 0-39.761719 32.234376-72 72-72 39.765626 0 72 32.238281 72 72-.042968 39.746093-32.253906 71.957031-72 72zm104-64c-5.464843-.039063-10.921874-.371094-16.351562-1 .183594-2.3125.351562-4.636719.351562-7 0-29.503907-14.792968-57.046876-39.386718-73.347657-24.597656-16.300781-55.726563-19.1875-82.902344-7.691406-3.976562-8.632813-7.117188-17.625-9.375-26.855469-2.875-11.820312-4.332031-23.941406-4.335938-36.105468 0-83.945313 68.054688-152 152-152 83.949219 0 152 68.054687 152 152 0 83.949218-68.050781 152-152 152zm0 0" /&gt;
-    &lt;path
-        d="m72.289062 360.179688c0-4.417969-3.582031-8-8-8-4.417968 0-8 3.582031-8 8 0 13.257812-10.746093 24-24 24-4.417968 0-8 3.582031-8 8 0 4.417968 3.582032 8 8 8 13.253907 0 24 10.746093 24 24 0 4.417968 3.582032 8 8 8 4.417969 0 8-3.582032 8-8 0-13.253907 10.746094-24 24-24 4.417969 0 8-3.582032 8-8 0-4.417969-3.582031-8-8-8-13.253906 0-24-10.742188-24-24zm-8 40.25c-2.328124-3.140626-5.109374-5.917969-8.246093-8.25 3.136719-2.328126 5.917969-5.109376 8.246093-8.246094 2.332032 3.136718 5.109376 5.917968 8.25 8.246094-3.140624 2.332031-5.917968 5.109374-8.25 8.25zm0 0" /&gt;
-    &lt;path
-        d="m392.289062 72.179688c0 4.417968 3.582032 8 8 8 4.417969 0 8-3.582032 8-8 0-13.253907 10.746094-24 24-24 4.417969 0 8-3.582032 8-8 0-4.417969-3.582031-8-8-8-13.253906 0-24-10.742188-24-24 0-4.417969-3.582031-8-8-8-4.417968 0-8 3.582031-8 8 0 13.257812-10.746093 24-24 24-4.417968 0-8 3.582031-8 8 0 4.417968 3.582032 8 8 8 13.253907 0 24 10.746093 24 24zm8-40.246094c2.332032 3.136718 5.109376 5.917968 8.25 8.246094-3.140624 2.332031-5.917968 5.109374-8.25 8.25-2.328124-3.140626-5.109374-5.917969-8.246093-8.25 3.136719-2.328126 5.917969-5.109376 8.246093-8.246094zm0 0" /&gt;
-    &lt;path
-        d="m416.289062 248.179688c-13.253906 0-24-10.742188-24-24 0-4.417969-3.582031-8-8-8-4.417968 0-8 3.582031-8 8 0 13.257812-10.746093 24-24 24-4.417968 0-8 3.582031-8 8 0 4.417968 3.582032 8 8 8 13.253907 0 24 10.746093 24 24 0 4.417968 3.582032 8 8 8 4.417969 0 8-3.582032 8-8 0-13.253907 10.746094-24 24-24 4.417969 0 8-3.582032 8-8 0-4.417969-3.582031-8-8-8zm-32 16.25c-2.328124-3.140626-5.109374-5.917969-8.246093-8.25 3.136719-2.328126 5.917969-5.109376 8.246093-8.246094 2.332032 3.136718 5.109376 5.917968 8.25 8.246094-3.140624 2.332031-5.917968 5.109374-8.25 8.25zm0 0" /&gt;
-    &lt;path
-        d="m328.289062 184.179688c0-4.417969-3.582031-8-8-8-13.253906 0-24-10.742188-24-24 0-4.417969-3.582031-8-8-8-4.417968 0-8 3.582031-8 8 0 13.257812-10.746093 24-24 24-4.417968 0-8 3.582031-8 8 0 4.417968 3.582032 8 8 8 13.253907 0 24 10.746093 24 24 0 4.417968 3.582032 8 8 8 4.417969 0 8-3.582032 8-8 0-13.253907 10.746094-24 24-24 4.417969 0 8-3.582032 8-8zm-40 8.25c-2.328124-3.140626-5.109374-5.917969-8.246093-8.25 3.136719-2.328126 5.917969-5.109376 8.246093-8.246094 2.332032 3.136718 5.109376 5.917968 8.25 8.246094-3.140624 2.332031-5.917968 5.109374-8.25 8.25zm0 0" /&gt;
-    &lt;path d="m96.289062 328.179688h16v16h-16zm0 0" /&gt;
-    &lt;path d="m16.289062 440.179688h16v16h-16zm0 0" /&gt;
-    &lt;path
-        d="m472.289062 416.179688c0-13.253907-10.746093-24-24-24-13.253906 0-24 10.746093-24 24 0 13.257812 10.746094 24 24 24 13.253907 0 24-10.742188 24-24zm-32 0c0-4.417969 3.582032-8 8-8 4.417969 0 8 3.582031 8 8 0 4.417968-3.582031 8-8 8-4.417968 0-8-3.582032-8-8zm0 0" /&gt;
-    &lt;path
-        d="m240.289062 56.179688c0-17.671876-14.328124-32-32-32-17.671874 0-32 14.328124-32 32 0 17.675781 14.328126 32 32 32 17.671876 0 32-14.324219 32-32zm-48 0c0-8.835938 7.164063-16 16-16 8.835938 0 16 7.164062 16 16 0 8.839843-7.164062 16-16 16-8.835937 0-16-7.160157-16-16zm0 0" /&gt;
-    &lt;path d="m288.289062 40.179688h16v16h-16zm0 0" /&gt;
-    &lt;path d="m320.289062 336.179688h16v16h-16zm0 0" /&gt;
-    &lt;path d="m368.289062 440.179688h16v16h-16zm0 0" /&gt;
-    &lt;path d="m96.289062 208.179688h16v16h-16zm0 0" /&gt;
-    &lt;path
-        d="m32.289062 208.902344 16-1.441406c-.039062-.382813-3.199218-38.457032 17.878907-61.601563 12.09375-12.28125 28.914062-18.730469 46.121093-17.679687v-16c-21.730468-1.148438-42.886718 7.214843-57.960937 22.914062-25.824219 28.289062-22.175781 71.96875-22.039063 73.808594zm0 0" /&gt;
-    &lt;path
-        d="m320.289062 112.179688v16c4 0 97.242188 1.707031 112.089844 113.058593l15.855469-2.113281c-16.746094-125.488281-126.832031-126.945312-127.945313-126.945312zm0 0" /&gt;
+    <t xml:space="preserve">&lt;svg
+   xmlns="http://www.w3.org/2000/svg"
+   viewBox="0 0 64 64"
+&gt;
+  &lt;path d="M36.474,14.5c2.94,4.273 7.612,13.166 7.612,16.414c0,6.67 -5.416,12.086 -12.086,12.086c-6.67,0 -12.086,-5.416 -12.086,-12.086c0,-5.043 6.908,-14.303 10.279,-18.521c0.43,-0.563 1.098,-0.893 1.807,-0.893" /&gt;
+  &lt;path d="M40.5,32.457c0,3.335 -2.708,6.043 -6.043,6.043" /&gt;
+  &lt;path d="M48,46.5c0,1.104 -7.169,2 -16,2c-8.831,0 -16,-0.896 -16,-2" /&gt;
+  &lt;path d="M46.395,43.5c5.831,0.913 9.605,2.365 9.605,4c0,2.76 -10.754,5 -24,5c-13.246,0 -24,-2.24 -24,-5c0,-1.635 3.774,-3.087 9.605,-4" /&gt;
 &lt;/svg&gt;
 </t>
+  </si>
+  <si>
+    <t>Carousel_One</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Working with proven and experienced cleaners.</t>
+  </si>
+  <si>
+    <t>Carousel_Two</t>
+  </si>
+  <si>
+    <t>We value the support of local community businesses.</t>
   </si>
   <si>
     <t>Quote_Heading</t>
@@ -187,7 +182,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -205,6 +200,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -245,15 +245,24 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -506,18 +515,18 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -525,15 +534,15 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -541,15 +550,15 @@
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -557,15 +566,15 @@
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -573,15 +582,15 @@
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -589,23 +598,23 @@
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -613,23 +622,23 @@
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -642,10 +651,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -653,7 +662,7 @@
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -661,7 +670,7 @@
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -669,30 +678,43 @@
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="26">
-      <c r="A26" s="8"/>
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="8"/>
+      <c r="A27" s="11"/>
     </row>
     <row r="28">
-      <c r="A28" s="8"/>
+      <c r="A28" s="11"/>
     </row>
     <row r="29">
-      <c r="A29" s="8"/>
+      <c r="A29" s="11"/>
     </row>
     <row r="30">
-      <c r="A30" s="8"/>
+      <c r="A30" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B14"/>
-    <hyperlink r:id="rId2" ref="B17"/>
-    <hyperlink r:id="rId3" ref="B20"/>
+    <hyperlink r:id="rId1" ref="B16"/>
+    <hyperlink r:id="rId2" ref="B19"/>
+    <hyperlink r:id="rId3" ref="B22"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>
